--- a/1st session package2.xlsx
+++ b/1st session package2.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhin\Desktop\fidelity core java 16th march\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B503A45D-1CEA-4D2E-BA38-2C9FA53E946C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66610A89-0101-4F84-8D25-5BC3BA72AE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{53100BFC-0026-455D-9376-AB0DEF94209D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="12240" windowHeight="8640" firstSheet="8" activeTab="11" xr2:uid="{53100BFC-0026-455D-9376-AB0DEF94209D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="singleton pattern" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId5"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId4"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId8"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId9"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet name="Exception Handling" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="320">
   <si>
     <t>package</t>
   </si>
@@ -644,6 +646,411 @@
   </si>
   <si>
     <t>db</t>
+  </si>
+  <si>
+    <t>Abstract class</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>class(normal )</t>
+  </si>
+  <si>
+    <t>we can have only concrete methods</t>
+  </si>
+  <si>
+    <t>we can declare both concrete and non concrete (abstract) methods.</t>
+  </si>
+  <si>
+    <t>we can have only non concrete mehtods but java v 8 onwards we can have concrete methods.</t>
+  </si>
+  <si>
+    <t>we can create an instance</t>
+  </si>
+  <si>
+    <t>ref is alllowed</t>
+  </si>
+  <si>
+    <t>only ref is created</t>
+  </si>
+  <si>
+    <t>we can declare static , final or static final variables/ref</t>
+  </si>
+  <si>
+    <t>non static varaibles copies = no of objects</t>
+  </si>
+  <si>
+    <t>non static varaibles copies = no of objects (child classes)</t>
+  </si>
+  <si>
+    <t>don't have non static fields</t>
+  </si>
+  <si>
+    <t>can't have abstract/non concrete methods</t>
+  </si>
+  <si>
+    <t>it can have 0 to N abstract/non concrete methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it can have 0 to N abstract/non concrete methods(here methods are inherently abstract , so usage of abstarct keyword is an optional thing) </t>
+  </si>
+  <si>
+    <t>Serializable ===&gt; object is used over the network transfer or used with file interaction</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if an interface is not having any single method declaration then that interface is called as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">marker inferface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  It is used for a special purpose .  Externalizable. Serializabe</t>
+    </r>
+  </si>
+  <si>
+    <t>it can extend only one class</t>
+  </si>
+  <si>
+    <t>it can extend only one class/ abstract / normal class</t>
+  </si>
+  <si>
+    <t>it can implements one or many interfaces</t>
+  </si>
+  <si>
+    <t>it can't implements one or many interfaces</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">it can extends many interfaces </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but not the class/classes</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception : abnormal or unexpected situation may occur during program execution.</t>
+  </si>
+  <si>
+    <t>Checked Exceptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">have to handling </t>
+  </si>
+  <si>
+    <t>UncheckedExceptions/ runtime exceptions</t>
+  </si>
+  <si>
+    <t>handling exceptions or not handling exception that is fine.</t>
+  </si>
+  <si>
+    <t>if we r not handling exceptions then the exceptions are handled by JVM</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Throwable</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>SQLException</t>
+  </si>
+  <si>
+    <t>IOException</t>
+  </si>
+  <si>
+    <t>FileNotFoundException</t>
+  </si>
+  <si>
+    <t>RuntimeException</t>
+  </si>
+  <si>
+    <t>ArrayIndexOutOfBoundsException</t>
+  </si>
+  <si>
+    <t>CLassNotFoundException</t>
+  </si>
+  <si>
+    <t>NullPointerException</t>
+  </si>
+  <si>
+    <t>ArithmeticException</t>
+  </si>
+  <si>
+    <t>ETC…</t>
+  </si>
+  <si>
+    <t>StackOverflow</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>CheckedExceptions</t>
+  </si>
+  <si>
+    <t>Unchecked Exceptions</t>
+  </si>
+  <si>
+    <t>to handle the exceptions</t>
+  </si>
+  <si>
+    <t>try catch finally</t>
+  </si>
+  <si>
+    <t>throws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">try </t>
+  </si>
+  <si>
+    <t>we will write a code where there is a chance of raising exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catch </t>
+  </si>
+  <si>
+    <t>we will write a code to handle the particular exception</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>we will write a code for closure activity.</t>
+  </si>
+  <si>
+    <t>whether exception is raised or not finally must be executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closing db connections, closing file or closing network </t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>catch(Exception e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">finally </t>
+  </si>
+  <si>
+    <t xml:space="preserve">… N no of </t>
+  </si>
+  <si>
+    <t>catch blocks</t>
+  </si>
+  <si>
+    <t>to create user defined functions</t>
+  </si>
+  <si>
+    <t>1. class name should end with exception word</t>
+  </si>
+  <si>
+    <t>2. it should extends to any class from throwable and its hierarchy.</t>
+  </si>
+  <si>
+    <t>3. use constructor with String arg.</t>
+  </si>
+  <si>
+    <t>4. override the to String method.</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>library and framework</t>
+  </si>
+  <si>
+    <t>collection is a framework</t>
+  </si>
+  <si>
+    <t>one dimentional collection</t>
+  </si>
+  <si>
+    <t>2 dim. Collection</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>Concrete class</t>
+  </si>
+  <si>
+    <t>AbstractList</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>ArrayLIst</t>
+  </si>
+  <si>
+    <t>LinkedLIst</t>
+  </si>
+  <si>
+    <t>doubly LL implementation they have done it in LinkedList</t>
+  </si>
+  <si>
+    <t>all collections are dynamic in nature</t>
+  </si>
+  <si>
+    <t>it will hold data w . R. t. ds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List </t>
+  </si>
+  <si>
+    <t>will hold duplicate content</t>
+  </si>
+  <si>
+    <t>hold the data in terms of an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">searching purpose </t>
+  </si>
+  <si>
+    <t>inbetween addition or removal purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can hold hertrogenous content </t>
+  </si>
+  <si>
+    <t>can hold a specific content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set </t>
+  </si>
+  <si>
+    <t>sets are used to hold only unique contents</t>
+  </si>
+  <si>
+    <t>sets are backed by map.</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>it is backed by hashmap</t>
+  </si>
+  <si>
+    <t>it is used to store unique elements</t>
+  </si>
+  <si>
+    <t>performance wise it is faster compared with other set impl.</t>
+  </si>
+  <si>
+    <t>output or arrangement of objects in hashset can't predict.</t>
+  </si>
+  <si>
+    <t>becoz the objects which we will add into hashset , all r sprreaded across the buckets.</t>
+  </si>
+  <si>
+    <t>if uniqueness is imp irrespective of order.</t>
+  </si>
+  <si>
+    <t>treeset is backed by treemap</t>
+  </si>
+  <si>
+    <t>treeset is used to hold sorted order of your contents</t>
+  </si>
+  <si>
+    <t>by default for primary data types it will follow  natural order(ascending order)</t>
+  </si>
+  <si>
+    <t>internally it will follow data structure tree.</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>it will hold the data interms of key value pair</t>
+  </si>
+  <si>
+    <t>key is unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value part may repeated / </t>
+  </si>
+  <si>
+    <t>but if key is repeated then it will replace old value with new value</t>
+  </si>
+  <si>
+    <t>value part can have null values / multiple null value as a value in map --- allowed</t>
+  </si>
+  <si>
+    <t>by default HashMap will hold 16 pairs</t>
+  </si>
+  <si>
+    <t>it will allow only 1 null as a key</t>
+  </si>
+  <si>
+    <t>1 ---&gt; singel value in hashset</t>
+  </si>
+  <si>
+    <t>but here it requires 2 values</t>
+  </si>
+  <si>
+    <t>key and value</t>
   </si>
 </sst>
 </file>
@@ -688,7 +1095,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +1150,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -771,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -799,6 +1212,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1766,7 +2189,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1497330" y="0"/>
+          <a:off x="1495425" y="0"/>
           <a:ext cx="990600" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="swooshArrow">
@@ -1809,7 +2232,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1623136" y="427320"/>
+          <a:off x="1621231" y="427320"/>
           <a:ext cx="25755" cy="25755"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1859,7 +2282,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1636014" y="440197"/>
+          <a:off x="1634109" y="440197"/>
           <a:ext cx="230809" cy="178927"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1905,7 +2328,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1636014" y="440197"/>
+        <a:off x="1634109" y="440197"/>
         <a:ext cx="230809" cy="178927"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -1916,7 +2339,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1850478" y="259041"/>
+          <a:off x="1848573" y="259041"/>
           <a:ext cx="46558" cy="46558"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1966,7 +2389,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="311658" y="282320"/>
+          <a:off x="309753" y="282320"/>
           <a:ext cx="237744" cy="336804"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2012,7 +2435,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="311658" y="282320"/>
+        <a:off x="309753" y="282320"/>
         <a:ext cx="237744" cy="336804"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2023,7 +2446,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2123884" y="156638"/>
+          <a:off x="2121979" y="156638"/>
           <a:ext cx="64389" cy="64389"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2073,7 +2496,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2156079" y="188833"/>
+          <a:off x="2154174" y="188833"/>
           <a:ext cx="237744" cy="430291"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2119,7 +2542,7 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2156079" y="188833"/>
+        <a:off x="2154174" y="188833"/>
         <a:ext cx="237744" cy="430291"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -4997,6 +5420,1315 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE77611F-C35B-44BC-B3B8-3E6FC2E562A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2044065" y="2503170"/>
+          <a:ext cx="0" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69619EE3-3D9E-447D-930B-E27A2E0B0E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2196465" y="2893695"/>
+          <a:ext cx="0" cy="280035"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBDF6F84-48BC-4BF9-BBBB-92C92DABE297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="815340" y="2914650"/>
+          <a:ext cx="1175385" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDB8D07-3B87-4DA0-BE76-274691A1D29C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="358140" y="3438525"/>
+          <a:ext cx="1651635" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69EA0983-7C29-4675-A5E2-8BD20A07B005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="897255" y="3429000"/>
+          <a:ext cx="1160145" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B820DB3-B7DB-4180-BD9A-2BC87729E0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1983105" y="3429000"/>
+          <a:ext cx="93345" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329565</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D21CD43-930D-46A5-853D-C7F7C2CDDF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="3438525"/>
+          <a:ext cx="3101340" cy="348615"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Freeform: Shape 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054B61F2-2B93-4E0C-8B8B-BA377200324E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-257175" y="3314700"/>
+          <a:ext cx="3238500" cy="1314450"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 1543050 w 3238500"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1314450"/>
+            <a:gd name="connsiteX1" fmla="*/ 1628775 w 3238500"/>
+            <a:gd name="connsiteY1" fmla="*/ 38100 h 1314450"/>
+            <a:gd name="connsiteX2" fmla="*/ 1704975 w 3238500"/>
+            <a:gd name="connsiteY2" fmla="*/ 76200 h 1314450"/>
+            <a:gd name="connsiteX3" fmla="*/ 1743075 w 3238500"/>
+            <a:gd name="connsiteY3" fmla="*/ 95250 h 1314450"/>
+            <a:gd name="connsiteX4" fmla="*/ 1866900 w 3238500"/>
+            <a:gd name="connsiteY4" fmla="*/ 123825 h 1314450"/>
+            <a:gd name="connsiteX5" fmla="*/ 1895475 w 3238500"/>
+            <a:gd name="connsiteY5" fmla="*/ 142875 h 1314450"/>
+            <a:gd name="connsiteX6" fmla="*/ 1924050 w 3238500"/>
+            <a:gd name="connsiteY6" fmla="*/ 152400 h 1314450"/>
+            <a:gd name="connsiteX7" fmla="*/ 1962150 w 3238500"/>
+            <a:gd name="connsiteY7" fmla="*/ 171450 h 1314450"/>
+            <a:gd name="connsiteX8" fmla="*/ 1990725 w 3238500"/>
+            <a:gd name="connsiteY8" fmla="*/ 180975 h 1314450"/>
+            <a:gd name="connsiteX9" fmla="*/ 2028825 w 3238500"/>
+            <a:gd name="connsiteY9" fmla="*/ 200025 h 1314450"/>
+            <a:gd name="connsiteX10" fmla="*/ 2066925 w 3238500"/>
+            <a:gd name="connsiteY10" fmla="*/ 209550 h 1314450"/>
+            <a:gd name="connsiteX11" fmla="*/ 2190750 w 3238500"/>
+            <a:gd name="connsiteY11" fmla="*/ 228600 h 1314450"/>
+            <a:gd name="connsiteX12" fmla="*/ 2295525 w 3238500"/>
+            <a:gd name="connsiteY12" fmla="*/ 257175 h 1314450"/>
+            <a:gd name="connsiteX13" fmla="*/ 2343150 w 3238500"/>
+            <a:gd name="connsiteY13" fmla="*/ 266700 h 1314450"/>
+            <a:gd name="connsiteX14" fmla="*/ 2400300 w 3238500"/>
+            <a:gd name="connsiteY14" fmla="*/ 285750 h 1314450"/>
+            <a:gd name="connsiteX15" fmla="*/ 2524125 w 3238500"/>
+            <a:gd name="connsiteY15" fmla="*/ 304800 h 1314450"/>
+            <a:gd name="connsiteX16" fmla="*/ 2657475 w 3238500"/>
+            <a:gd name="connsiteY16" fmla="*/ 342900 h 1314450"/>
+            <a:gd name="connsiteX17" fmla="*/ 2724150 w 3238500"/>
+            <a:gd name="connsiteY17" fmla="*/ 352425 h 1314450"/>
+            <a:gd name="connsiteX18" fmla="*/ 2819400 w 3238500"/>
+            <a:gd name="connsiteY18" fmla="*/ 381000 h 1314450"/>
+            <a:gd name="connsiteX19" fmla="*/ 2867025 w 3238500"/>
+            <a:gd name="connsiteY19" fmla="*/ 409575 h 1314450"/>
+            <a:gd name="connsiteX20" fmla="*/ 2895600 w 3238500"/>
+            <a:gd name="connsiteY20" fmla="*/ 428625 h 1314450"/>
+            <a:gd name="connsiteX21" fmla="*/ 2952750 w 3238500"/>
+            <a:gd name="connsiteY21" fmla="*/ 447675 h 1314450"/>
+            <a:gd name="connsiteX22" fmla="*/ 3009900 w 3238500"/>
+            <a:gd name="connsiteY22" fmla="*/ 485775 h 1314450"/>
+            <a:gd name="connsiteX23" fmla="*/ 3067050 w 3238500"/>
+            <a:gd name="connsiteY23" fmla="*/ 533400 h 1314450"/>
+            <a:gd name="connsiteX24" fmla="*/ 3095625 w 3238500"/>
+            <a:gd name="connsiteY24" fmla="*/ 581025 h 1314450"/>
+            <a:gd name="connsiteX25" fmla="*/ 3124200 w 3238500"/>
+            <a:gd name="connsiteY25" fmla="*/ 609600 h 1314450"/>
+            <a:gd name="connsiteX26" fmla="*/ 3171825 w 3238500"/>
+            <a:gd name="connsiteY26" fmla="*/ 657225 h 1314450"/>
+            <a:gd name="connsiteX27" fmla="*/ 3190875 w 3238500"/>
+            <a:gd name="connsiteY27" fmla="*/ 704850 h 1314450"/>
+            <a:gd name="connsiteX28" fmla="*/ 3200400 w 3238500"/>
+            <a:gd name="connsiteY28" fmla="*/ 733425 h 1314450"/>
+            <a:gd name="connsiteX29" fmla="*/ 3219450 w 3238500"/>
+            <a:gd name="connsiteY29" fmla="*/ 771525 h 1314450"/>
+            <a:gd name="connsiteX30" fmla="*/ 3238500 w 3238500"/>
+            <a:gd name="connsiteY30" fmla="*/ 828675 h 1314450"/>
+            <a:gd name="connsiteX31" fmla="*/ 3228975 w 3238500"/>
+            <a:gd name="connsiteY31" fmla="*/ 895350 h 1314450"/>
+            <a:gd name="connsiteX32" fmla="*/ 3171825 w 3238500"/>
+            <a:gd name="connsiteY32" fmla="*/ 923925 h 1314450"/>
+            <a:gd name="connsiteX33" fmla="*/ 3076575 w 3238500"/>
+            <a:gd name="connsiteY33" fmla="*/ 981075 h 1314450"/>
+            <a:gd name="connsiteX34" fmla="*/ 3038475 w 3238500"/>
+            <a:gd name="connsiteY34" fmla="*/ 990600 h 1314450"/>
+            <a:gd name="connsiteX35" fmla="*/ 2914650 w 3238500"/>
+            <a:gd name="connsiteY35" fmla="*/ 1009650 h 1314450"/>
+            <a:gd name="connsiteX36" fmla="*/ 2762250 w 3238500"/>
+            <a:gd name="connsiteY36" fmla="*/ 1028700 h 1314450"/>
+            <a:gd name="connsiteX37" fmla="*/ 2581275 w 3238500"/>
+            <a:gd name="connsiteY37" fmla="*/ 1066800 h 1314450"/>
+            <a:gd name="connsiteX38" fmla="*/ 2552700 w 3238500"/>
+            <a:gd name="connsiteY38" fmla="*/ 1076325 h 1314450"/>
+            <a:gd name="connsiteX39" fmla="*/ 2314575 w 3238500"/>
+            <a:gd name="connsiteY39" fmla="*/ 1095375 h 1314450"/>
+            <a:gd name="connsiteX40" fmla="*/ 2152650 w 3238500"/>
+            <a:gd name="connsiteY40" fmla="*/ 1133475 h 1314450"/>
+            <a:gd name="connsiteX41" fmla="*/ 2076450 w 3238500"/>
+            <a:gd name="connsiteY41" fmla="*/ 1152525 h 1314450"/>
+            <a:gd name="connsiteX42" fmla="*/ 1914525 w 3238500"/>
+            <a:gd name="connsiteY42" fmla="*/ 1162050 h 1314450"/>
+            <a:gd name="connsiteX43" fmla="*/ 1781175 w 3238500"/>
+            <a:gd name="connsiteY43" fmla="*/ 1171575 h 1314450"/>
+            <a:gd name="connsiteX44" fmla="*/ 1562100 w 3238500"/>
+            <a:gd name="connsiteY44" fmla="*/ 1209675 h 1314450"/>
+            <a:gd name="connsiteX45" fmla="*/ 1285875 w 3238500"/>
+            <a:gd name="connsiteY45" fmla="*/ 1228725 h 1314450"/>
+            <a:gd name="connsiteX46" fmla="*/ 1133475 w 3238500"/>
+            <a:gd name="connsiteY46" fmla="*/ 1257300 h 1314450"/>
+            <a:gd name="connsiteX47" fmla="*/ 1095375 w 3238500"/>
+            <a:gd name="connsiteY47" fmla="*/ 1276350 h 1314450"/>
+            <a:gd name="connsiteX48" fmla="*/ 981075 w 3238500"/>
+            <a:gd name="connsiteY48" fmla="*/ 1285875 h 1314450"/>
+            <a:gd name="connsiteX49" fmla="*/ 581025 w 3238500"/>
+            <a:gd name="connsiteY49" fmla="*/ 1295400 h 1314450"/>
+            <a:gd name="connsiteX50" fmla="*/ 476250 w 3238500"/>
+            <a:gd name="connsiteY50" fmla="*/ 1304925 h 1314450"/>
+            <a:gd name="connsiteX51" fmla="*/ 390525 w 3238500"/>
+            <a:gd name="connsiteY51" fmla="*/ 1314450 h 1314450"/>
+            <a:gd name="connsiteX52" fmla="*/ 0 w 3238500"/>
+            <a:gd name="connsiteY52" fmla="*/ 1304925 h 1314450"/>
+            <a:gd name="connsiteX53" fmla="*/ 28575 w 3238500"/>
+            <a:gd name="connsiteY53" fmla="*/ 1200150 h 1314450"/>
+            <a:gd name="connsiteX54" fmla="*/ 66675 w 3238500"/>
+            <a:gd name="connsiteY54" fmla="*/ 1085850 h 1314450"/>
+            <a:gd name="connsiteX55" fmla="*/ 104775 w 3238500"/>
+            <a:gd name="connsiteY55" fmla="*/ 1066800 h 1314450"/>
+            <a:gd name="connsiteX56" fmla="*/ 152400 w 3238500"/>
+            <a:gd name="connsiteY56" fmla="*/ 990600 h 1314450"/>
+            <a:gd name="connsiteX57" fmla="*/ 171450 w 3238500"/>
+            <a:gd name="connsiteY57" fmla="*/ 952500 h 1314450"/>
+            <a:gd name="connsiteX58" fmla="*/ 161925 w 3238500"/>
+            <a:gd name="connsiteY58" fmla="*/ 742950 h 1314450"/>
+            <a:gd name="connsiteX59" fmla="*/ 152400 w 3238500"/>
+            <a:gd name="connsiteY59" fmla="*/ 714375 h 1314450"/>
+            <a:gd name="connsiteX60" fmla="*/ 133350 w 3238500"/>
+            <a:gd name="connsiteY60" fmla="*/ 685800 h 1314450"/>
+            <a:gd name="connsiteX61" fmla="*/ 104775 w 3238500"/>
+            <a:gd name="connsiteY61" fmla="*/ 666750 h 1314450"/>
+            <a:gd name="connsiteX62" fmla="*/ 114300 w 3238500"/>
+            <a:gd name="connsiteY62" fmla="*/ 638175 h 1314450"/>
+            <a:gd name="connsiteX63" fmla="*/ 152400 w 3238500"/>
+            <a:gd name="connsiteY63" fmla="*/ 542925 h 1314450"/>
+            <a:gd name="connsiteX64" fmla="*/ 180975 w 3238500"/>
+            <a:gd name="connsiteY64" fmla="*/ 523875 h 1314450"/>
+            <a:gd name="connsiteX65" fmla="*/ 200025 w 3238500"/>
+            <a:gd name="connsiteY65" fmla="*/ 495300 h 1314450"/>
+            <a:gd name="connsiteX66" fmla="*/ 228600 w 3238500"/>
+            <a:gd name="connsiteY66" fmla="*/ 466725 h 1314450"/>
+            <a:gd name="connsiteX67" fmla="*/ 428625 w 3238500"/>
+            <a:gd name="connsiteY67" fmla="*/ 428625 h 1314450"/>
+            <a:gd name="connsiteX68" fmla="*/ 600075 w 3238500"/>
+            <a:gd name="connsiteY68" fmla="*/ 400050 h 1314450"/>
+            <a:gd name="connsiteX69" fmla="*/ 628650 w 3238500"/>
+            <a:gd name="connsiteY69" fmla="*/ 390525 h 1314450"/>
+            <a:gd name="connsiteX70" fmla="*/ 704850 w 3238500"/>
+            <a:gd name="connsiteY70" fmla="*/ 361950 h 1314450"/>
+            <a:gd name="connsiteX71" fmla="*/ 752475 w 3238500"/>
+            <a:gd name="connsiteY71" fmla="*/ 352425 h 1314450"/>
+            <a:gd name="connsiteX72" fmla="*/ 781050 w 3238500"/>
+            <a:gd name="connsiteY72" fmla="*/ 342900 h 1314450"/>
+            <a:gd name="connsiteX73" fmla="*/ 838200 w 3238500"/>
+            <a:gd name="connsiteY73" fmla="*/ 333375 h 1314450"/>
+            <a:gd name="connsiteX74" fmla="*/ 933450 w 3238500"/>
+            <a:gd name="connsiteY74" fmla="*/ 295275 h 1314450"/>
+            <a:gd name="connsiteX75" fmla="*/ 990600 w 3238500"/>
+            <a:gd name="connsiteY75" fmla="*/ 285750 h 1314450"/>
+            <a:gd name="connsiteX76" fmla="*/ 1019175 w 3238500"/>
+            <a:gd name="connsiteY76" fmla="*/ 276225 h 1314450"/>
+            <a:gd name="connsiteX77" fmla="*/ 1057275 w 3238500"/>
+            <a:gd name="connsiteY77" fmla="*/ 266700 h 1314450"/>
+            <a:gd name="connsiteX78" fmla="*/ 1238250 w 3238500"/>
+            <a:gd name="connsiteY78" fmla="*/ 228600 h 1314450"/>
+            <a:gd name="connsiteX79" fmla="*/ 1266825 w 3238500"/>
+            <a:gd name="connsiteY79" fmla="*/ 219075 h 1314450"/>
+            <a:gd name="connsiteX80" fmla="*/ 1476375 w 3238500"/>
+            <a:gd name="connsiteY80" fmla="*/ 209550 h 1314450"/>
+            <a:gd name="connsiteX81" fmla="*/ 1533525 w 3238500"/>
+            <a:gd name="connsiteY81" fmla="*/ 200025 h 1314450"/>
+            <a:gd name="connsiteX82" fmla="*/ 1562100 w 3238500"/>
+            <a:gd name="connsiteY82" fmla="*/ 190500 h 1314450"/>
+            <a:gd name="connsiteX83" fmla="*/ 1714500 w 3238500"/>
+            <a:gd name="connsiteY83" fmla="*/ 171450 h 1314450"/>
+            <a:gd name="connsiteX84" fmla="*/ 1809750 w 3238500"/>
+            <a:gd name="connsiteY84" fmla="*/ 152400 h 1314450"/>
+            <a:gd name="connsiteX85" fmla="*/ 1838325 w 3238500"/>
+            <a:gd name="connsiteY85" fmla="*/ 142875 h 1314450"/>
+            <a:gd name="connsiteX86" fmla="*/ 1914525 w 3238500"/>
+            <a:gd name="connsiteY86" fmla="*/ 142875 h 1314450"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX37" y="connsiteY37"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX38" y="connsiteY38"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX39" y="connsiteY39"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX40" y="connsiteY40"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX41" y="connsiteY41"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX42" y="connsiteY42"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX43" y="connsiteY43"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX44" y="connsiteY44"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX45" y="connsiteY45"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX46" y="connsiteY46"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX47" y="connsiteY47"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX48" y="connsiteY48"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX49" y="connsiteY49"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX50" y="connsiteY50"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX51" y="connsiteY51"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX52" y="connsiteY52"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX53" y="connsiteY53"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX54" y="connsiteY54"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX55" y="connsiteY55"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX56" y="connsiteY56"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX57" y="connsiteY57"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX58" y="connsiteY58"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX59" y="connsiteY59"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX60" y="connsiteY60"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX61" y="connsiteY61"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX62" y="connsiteY62"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX63" y="connsiteY63"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX64" y="connsiteY64"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX65" y="connsiteY65"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX66" y="connsiteY66"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX67" y="connsiteY67"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX68" y="connsiteY68"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX69" y="connsiteY69"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX70" y="connsiteY70"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX71" y="connsiteY71"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX72" y="connsiteY72"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX73" y="connsiteY73"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX74" y="connsiteY74"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX75" y="connsiteY75"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX76" y="connsiteY76"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX77" y="connsiteY77"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX78" y="connsiteY78"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX79" y="connsiteY79"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX80" y="connsiteY80"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX81" y="connsiteY81"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX82" y="connsiteY82"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX83" y="connsiteY83"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX84" y="connsiteY84"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX85" y="connsiteY85"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX86" y="connsiteY86"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3238500" h="1314450">
+              <a:moveTo>
+                <a:pt x="1543050" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="1673974" y="78555"/>
+                <a:pt x="1521750" y="-6494"/>
+                <a:pt x="1628775" y="38100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1654989" y="49022"/>
+                <a:pt x="1679575" y="63500"/>
+                <a:pt x="1704975" y="76200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1717675" y="82550"/>
+                <a:pt x="1729300" y="91806"/>
+                <a:pt x="1743075" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1834981" y="118227"/>
+                <a:pt x="1793602" y="109165"/>
+                <a:pt x="1866900" y="123825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1876425" y="130175"/>
+                <a:pt x="1885236" y="137755"/>
+                <a:pt x="1895475" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1904455" y="147365"/>
+                <a:pt x="1914822" y="148445"/>
+                <a:pt x="1924050" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1937101" y="157993"/>
+                <a:pt x="1949099" y="165857"/>
+                <a:pt x="1962150" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1971378" y="175405"/>
+                <a:pt x="1981497" y="177020"/>
+                <a:pt x="1990725" y="180975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2003776" y="186568"/>
+                <a:pt x="2015530" y="195039"/>
+                <a:pt x="2028825" y="200025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2041082" y="204622"/>
+                <a:pt x="2054088" y="206983"/>
+                <a:pt x="2066925" y="209550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2158994" y="227964"/>
+                <a:pt x="2090107" y="210301"/>
+                <a:pt x="2190750" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2214264" y="232875"/>
+                <a:pt x="2281611" y="253697"/>
+                <a:pt x="2295525" y="257175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2311231" y="261102"/>
+                <a:pt x="2327531" y="262440"/>
+                <a:pt x="2343150" y="266700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2362523" y="271984"/>
+                <a:pt x="2380927" y="280466"/>
+                <a:pt x="2400300" y="285750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2437222" y="295820"/>
+                <a:pt x="2488471" y="300343"/>
+                <a:pt x="2524125" y="304800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2529277" y="306346"/>
+                <a:pt x="2627750" y="337496"/>
+                <a:pt x="2657475" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2679564" y="346916"/>
+                <a:pt x="2701925" y="349250"/>
+                <a:pt x="2724150" y="352425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2793719" y="375615"/>
+                <a:pt x="2761819" y="366605"/>
+                <a:pt x="2819400" y="381000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2835275" y="390525"/>
+                <a:pt x="2851326" y="399763"/>
+                <a:pt x="2867025" y="409575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2876733" y="415642"/>
+                <a:pt x="2885139" y="423976"/>
+                <a:pt x="2895600" y="428625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2913950" y="436780"/>
+                <a:pt x="2934789" y="438695"/>
+                <a:pt x="2952750" y="447675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2973228" y="457914"/>
+                <a:pt x="3009900" y="485775"/>
+                <a:pt x="3009900" y="485775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3075798" y="584623"/>
+                <a:pt x="2970372" y="436722"/>
+                <a:pt x="3067050" y="533400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3080141" y="546491"/>
+                <a:pt x="3084517" y="566214"/>
+                <a:pt x="3095625" y="581025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3103707" y="591801"/>
+                <a:pt x="3115576" y="599252"/>
+                <a:pt x="3124200" y="609600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3163888" y="657225"/>
+                <a:pt x="3119438" y="622300"/>
+                <a:pt x="3171825" y="657225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3178175" y="673100"/>
+                <a:pt x="3184872" y="688841"/>
+                <a:pt x="3190875" y="704850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3194400" y="714251"/>
+                <a:pt x="3196445" y="724197"/>
+                <a:pt x="3200400" y="733425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3205993" y="746476"/>
+                <a:pt x="3214177" y="758342"/>
+                <a:pt x="3219450" y="771525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3226908" y="790169"/>
+                <a:pt x="3238500" y="828675"/>
+                <a:pt x="3238500" y="828675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3235325" y="850900"/>
+                <a:pt x="3238093" y="874834"/>
+                <a:pt x="3228975" y="895350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3222553" y="909800"/>
+                <a:pt x="3184504" y="919699"/>
+                <a:pt x="3171825" y="923925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3131881" y="953883"/>
+                <a:pt x="3127539" y="960690"/>
+                <a:pt x="3076575" y="981075"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3064420" y="985937"/>
+                <a:pt x="3051367" y="988325"/>
+                <a:pt x="3038475" y="990600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2997350" y="997857"/>
+                <a:pt x="2955842" y="1002785"/>
+                <a:pt x="2914650" y="1009650"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2796551" y="1029333"/>
+                <a:pt x="2961316" y="1010603"/>
+                <a:pt x="2762250" y="1028700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2645611" y="1078688"/>
+                <a:pt x="2743110" y="1045222"/>
+                <a:pt x="2581275" y="1066800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2571323" y="1068127"/>
+                <a:pt x="2562683" y="1075255"/>
+                <a:pt x="2552700" y="1076325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2473525" y="1084808"/>
+                <a:pt x="2314575" y="1095375"/>
+                <a:pt x="2314575" y="1095375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2098920" y="1156991"/>
+                <a:pt x="2435647" y="1062726"/>
+                <a:pt x="2152650" y="1133475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2127250" y="1139825"/>
+                <a:pt x="2102445" y="1149406"/>
+                <a:pt x="2076450" y="1152525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2022767" y="1158967"/>
+                <a:pt x="1968481" y="1158569"/>
+                <a:pt x="1914525" y="1162050"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1781175" y="1171575"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1702641" y="1189027"/>
+                <a:pt x="1646163" y="1203878"/>
+                <a:pt x="1562100" y="1209675"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1285875" y="1228725"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1235075" y="1238250"/>
+                <a:pt x="1183617" y="1244764"/>
+                <a:pt x="1133475" y="1257300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1119700" y="1260744"/>
+                <a:pt x="1109331" y="1273733"/>
+                <a:pt x="1095375" y="1276350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1057798" y="1283396"/>
+                <a:pt x="1019281" y="1284460"/>
+                <a:pt x="981075" y="1285875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="847779" y="1290812"/>
+                <a:pt x="714375" y="1292225"/>
+                <a:pt x="581025" y="1295400"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="476250" y="1304925"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="447642" y="1307786"/>
+                <a:pt x="419276" y="1314450"/>
+                <a:pt x="390525" y="1314450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="260311" y="1314450"/>
+                <a:pt x="130175" y="1308100"/>
+                <a:pt x="0" y="1304925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="20414" y="1182442"/>
+                <a:pt x="-4799" y="1308616"/>
+                <a:pt x="28575" y="1200150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="33359" y="1184601"/>
+                <a:pt x="45520" y="1107005"/>
+                <a:pt x="66675" y="1085850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="76715" y="1075810"/>
+                <a:pt x="92075" y="1073150"/>
+                <a:pt x="104775" y="1066800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="153043" y="970263"/>
+                <a:pt x="90576" y="1089518"/>
+                <a:pt x="152400" y="990600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="159925" y="978559"/>
+                <a:pt x="165100" y="965200"/>
+                <a:pt x="171450" y="952500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="168275" y="882650"/>
+                <a:pt x="167501" y="812649"/>
+                <a:pt x="161925" y="742950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="161124" y="732942"/>
+                <a:pt x="156890" y="723355"/>
+                <a:pt x="152400" y="714375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="147280" y="704136"/>
+                <a:pt x="141445" y="693895"/>
+                <a:pt x="133350" y="685800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="125255" y="677705"/>
+                <a:pt x="114300" y="673100"/>
+                <a:pt x="104775" y="666750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="107950" y="657225"/>
+                <a:pt x="111542" y="647829"/>
+                <a:pt x="114300" y="638175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="123614" y="605577"/>
+                <a:pt x="126895" y="568430"/>
+                <a:pt x="152400" y="542925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="160495" y="534830"/>
+                <a:pt x="171450" y="530225"/>
+                <a:pt x="180975" y="523875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="187325" y="514350"/>
+                <a:pt x="192696" y="504094"/>
+                <a:pt x="200025" y="495300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="208649" y="484952"/>
+                <a:pt x="217639" y="474555"/>
+                <a:pt x="228600" y="466725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="284167" y="427034"/>
+                <a:pt x="371796" y="435311"/>
+                <a:pt x="428625" y="428625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="591518" y="387902"/>
+                <a:pt x="410844" y="429162"/>
+                <a:pt x="600075" y="400050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="609998" y="398523"/>
+                <a:pt x="619214" y="393956"/>
+                <a:pt x="628650" y="390525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="654144" y="381254"/>
+                <a:pt x="678922" y="369928"/>
+                <a:pt x="704850" y="361950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="720323" y="357189"/>
+                <a:pt x="736769" y="356352"/>
+                <a:pt x="752475" y="352425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="762215" y="349990"/>
+                <a:pt x="771249" y="345078"/>
+                <a:pt x="781050" y="342900"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="799903" y="338710"/>
+                <a:pt x="819347" y="337565"/>
+                <a:pt x="838200" y="333375"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="867320" y="326904"/>
+                <a:pt x="911479" y="302035"/>
+                <a:pt x="933450" y="295275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="951909" y="289595"/>
+                <a:pt x="971747" y="289940"/>
+                <a:pt x="990600" y="285750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1000401" y="283572"/>
+                <a:pt x="1009521" y="278983"/>
+                <a:pt x="1019175" y="276225"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1031762" y="272629"/>
+                <a:pt x="1044483" y="269481"/>
+                <a:pt x="1057275" y="266700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1117515" y="253604"/>
+                <a:pt x="1179766" y="248095"/>
+                <a:pt x="1238250" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1247775" y="225425"/>
+                <a:pt x="1256817" y="219876"/>
+                <a:pt x="1266825" y="219075"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1336524" y="213499"/>
+                <a:pt x="1406525" y="212725"/>
+                <a:pt x="1476375" y="209550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1495425" y="206375"/>
+                <a:pt x="1514672" y="204215"/>
+                <a:pt x="1533525" y="200025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1543326" y="197847"/>
+                <a:pt x="1552255" y="192469"/>
+                <a:pt x="1562100" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1621860" y="178548"/>
+                <a:pt x="1651766" y="181355"/>
+                <a:pt x="1714500" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1746483" y="166400"/>
+                <a:pt x="1779033" y="162639"/>
+                <a:pt x="1809750" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1819275" y="149225"/>
+                <a:pt x="1828326" y="143784"/>
+                <a:pt x="1838325" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1863621" y="140575"/>
+                <a:pt x="1889125" y="142875"/>
+                <a:pt x="1914525" y="142875"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5498,6 +7230,702 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EB2C09-C312-4F96-82AF-0AC0557FC87A}">
+  <dimension ref="A2:E59"/>
+  <sheetViews>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>239</v>
+      </c>
+      <c r="B19" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
+      <c r="E21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="E26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>248</v>
+      </c>
+      <c r="D33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" t="s">
+        <v>254</v>
+      </c>
+      <c r="E38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D39" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>256</v>
+      </c>
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D41" t="s">
+        <v>257</v>
+      </c>
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" t="s">
+        <v>255</v>
+      </c>
+      <c r="D42" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>257</v>
+      </c>
+      <c r="D44" t="s">
+        <v>258</v>
+      </c>
+      <c r="E44" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>255</v>
+      </c>
+      <c r="D45" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>257</v>
+      </c>
+      <c r="E47" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>259</v>
+      </c>
+      <c r="E50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>260</v>
+      </c>
+      <c r="E51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD238A16-7EDD-4414-B151-6CD04910B15D}">
+  <dimension ref="A2:E54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D27" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+      <c r="D40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>297</v>
+      </c>
+      <c r="D48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED847559-E74E-47EB-B5E2-0F1134AE05DE}">
   <dimension ref="D2:F14"/>
@@ -5606,7 +8034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC25ABE3-726B-4254-BB89-ABC275C785FB}">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -5808,6 +8236,140 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A06CAE-74D3-442C-A617-91604A515F61}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D08DDE-2782-4D45-8140-F3402B943D82}">
   <dimension ref="A3:I14"/>
   <sheetViews>
@@ -5885,23 +8447,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A06CAE-74D3-442C-A617-91604A515F61}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
